--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2192.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2192.xlsx
@@ -354,7 +354,7 @@
         <v>1.965445970663105</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.895439549077051</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2192.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2192.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.071424599291474</v>
+        <v>0.9738157391548157</v>
       </c>
       <c r="B1">
-        <v>1.965445970663105</v>
+        <v>1.625557899475098</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.72291898727417</v>
       </c>
       <c r="D1">
-        <v>1.895439549077051</v>
+        <v>2.679537773132324</v>
       </c>
       <c r="E1">
-        <v>0.974538394286755</v>
+        <v>1.50115966796875</v>
       </c>
     </row>
   </sheetData>
